--- a/data/2011_data.xlsx
+++ b/data/2011_data.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00zh0\OneDrive\CAU\2020-1\자연어처리 및 정보검색\과제\Information-Retrieval\Team project\Sentiment-Analysis\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_934EBCCE3A212FC8C6160B50CB5CC619502FA4CF" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{E7D50882-F848-4537-8797-FD4435DCECD4}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="936" yWindow="0" windowWidth="22104" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="277">
   <si>
     <t>title</t>
   </si>
@@ -25,10 +31,544 @@
     <t>lyric</t>
   </si>
   <si>
+    <t>duration</t>
+  </si>
+  <si>
     <t>Party Rock Anthem</t>
   </si>
   <si>
+    <t>Firework</t>
+  </si>
+  <si>
+    <t>E.T.</t>
+  </si>
+  <si>
+    <t>Give Me Everything</t>
+  </si>
+  <si>
+    <t>Grenade</t>
+  </si>
+  <si>
+    <t>Super Bass</t>
+  </si>
+  <si>
+    <t>Moves Like Jagger</t>
+  </si>
+  <si>
+    <t>Just Can't Get Enough</t>
+  </si>
+  <si>
+    <t>On The Floor</t>
+  </si>
+  <si>
+    <t>S&amp;M</t>
+  </si>
+  <si>
+    <t>Pumped Up Kicks</t>
+  </si>
+  <si>
+    <t>Last Friday Night (T.G.I.F.)</t>
+  </si>
+  <si>
+    <t>Just The Way You Are</t>
+  </si>
+  <si>
+    <t>Tonight (I'm Lovin' You)</t>
+  </si>
+  <si>
+    <t>Raise Your Glass</t>
+  </si>
+  <si>
+    <t>Born This Way</t>
+  </si>
+  <si>
+    <t>F**kin' Perfect</t>
+  </si>
+  <si>
+    <t>What's My Name?</t>
+  </si>
+  <si>
+    <t>Look At Me Now</t>
+  </si>
+  <si>
+    <t>Down On Me</t>
+  </si>
+  <si>
+    <t>How To Love</t>
+  </si>
+  <si>
+    <t>Someone Like You</t>
+  </si>
+  <si>
+    <t>Good Life</t>
+  </si>
+  <si>
+    <t>The Lazy Song</t>
+  </si>
+  <si>
+    <t>Till The World Ends</t>
+  </si>
+  <si>
+    <t>The Show Goes On</t>
+  </si>
+  <si>
+    <t>The Edge Of Glory</t>
+  </si>
+  <si>
+    <t>We R Who We R</t>
+  </si>
+  <si>
+    <t>Black And Yellow</t>
+  </si>
+  <si>
+    <t>Tonight Tonight</t>
+  </si>
+  <si>
+    <t>Blow</t>
+  </si>
+  <si>
+    <t>Lighters</t>
+  </si>
+  <si>
+    <t>If I Die Young</t>
+  </si>
+  <si>
+    <t>Stereo Hearts</t>
+  </si>
+  <si>
+    <t>The Time (Dirty Bit)</t>
+  </si>
+  <si>
+    <t>Coming Home</t>
+  </si>
+  <si>
+    <t>Hey Baby (Drop It To The Floor)</t>
+  </si>
+  <si>
+    <t>Only Girl (In The World)</t>
+  </si>
+  <si>
+    <t>6 Foot 7 Foot</t>
+  </si>
+  <si>
+    <t>Just A Kiss</t>
+  </si>
+  <si>
+    <t>Dirt Road Anthem</t>
+  </si>
+  <si>
+    <t>Dynamite</t>
+  </si>
+  <si>
+    <t>No Hands</t>
+  </si>
+  <si>
+    <t>I Wanna Go</t>
+  </si>
+  <si>
+    <t>I'm On One</t>
+  </si>
+  <si>
+    <t>You Make Me Feel...</t>
+  </si>
+  <si>
+    <t>Yeah 3X</t>
+  </si>
+  <si>
+    <t>Moment 4 Life</t>
+  </si>
+  <si>
+    <t>I Need A Doctor</t>
+  </si>
+  <si>
+    <t>Just A Dream</t>
+  </si>
+  <si>
+    <t>Motivation</t>
+  </si>
+  <si>
+    <t>Stereo Love</t>
+  </si>
+  <si>
+    <t>Jar Of Hearts</t>
+  </si>
+  <si>
+    <t>Roll Up</t>
+  </si>
+  <si>
+    <t>Sexy And I Know It</t>
+  </si>
+  <si>
+    <t>Rocketeer</t>
+  </si>
+  <si>
+    <t>All Of The Lights</t>
+  </si>
+  <si>
+    <t>Hold It Against Me</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>What The Hell</t>
+  </si>
+  <si>
+    <t>Written In The Stars</t>
+  </si>
+  <si>
+    <t>Bottoms Up</t>
+  </si>
+  <si>
+    <t>DJ Got Us Fallin' In Love</t>
+  </si>
+  <si>
+    <t>For The First Time</t>
+  </si>
+  <si>
+    <t>Honey Bee</t>
+  </si>
+  <si>
+    <t>Don't You Wanna Stay</t>
+  </si>
+  <si>
+    <t>We Found Love</t>
+  </si>
+  <si>
+    <t>Pretty Girl Rock</t>
+  </si>
+  <si>
+    <t>You And I</t>
+  </si>
+  <si>
+    <t>Like A G6</t>
+  </si>
+  <si>
+    <t>Without You</t>
+  </si>
+  <si>
+    <t>Back To December</t>
+  </si>
+  <si>
+    <t>Teenage Dream</t>
+  </si>
+  <si>
+    <t>Crazy Girl</t>
+  </si>
+  <si>
+    <t>Cheers (Drink To That)</t>
+  </si>
+  <si>
+    <t>Who Says</t>
+  </si>
+  <si>
+    <t>Barefoot Blue Jean Night</t>
+  </si>
+  <si>
+    <t>Knee Deep</t>
+  </si>
+  <si>
+    <t>Country Girl (Shake It For Me)</t>
+  </si>
+  <si>
+    <t>Remind Me</t>
+  </si>
+  <si>
+    <t>In The Dark</t>
+  </si>
+  <si>
+    <t>Backseat</t>
+  </si>
+  <si>
+    <t>Headlines</t>
+  </si>
+  <si>
+    <t>Best Thing I Never Had</t>
+  </si>
+  <si>
+    <t>Don't Wanna Go Home</t>
+  </si>
+  <si>
+    <t>Where Them Girls At</t>
+  </si>
+  <si>
+    <t>She Ain't You</t>
+  </si>
+  <si>
+    <t>Take A Back Road</t>
+  </si>
+  <si>
+    <t>Please Don't Go</t>
+  </si>
+  <si>
+    <t>Sure Thing</t>
+  </si>
+  <si>
+    <t>Price Tag</t>
+  </si>
+  <si>
+    <t>God Gave Me You</t>
+  </si>
+  <si>
+    <t>She Will</t>
+  </si>
+  <si>
+    <t>Are You Gonna Kiss Me Or Not</t>
+  </si>
+  <si>
+    <t>Animal</t>
+  </si>
+  <si>
+    <t>You And Tequila</t>
+  </si>
+  <si>
+    <t>Colder Weather</t>
+  </si>
+  <si>
+    <t>My Last</t>
+  </si>
+  <si>
     <t>LMFAO Featuring Lauren Bennett &amp; GoonRock</t>
+  </si>
+  <si>
+    <t>Katy Perry</t>
+  </si>
+  <si>
+    <t>Katy Perry Featuring Kanye West</t>
+  </si>
+  <si>
+    <t>Pitbull Featuring Ne-Yo, Afrojack &amp; Nayer</t>
+  </si>
+  <si>
+    <t>Bruno Mars</t>
+  </si>
+  <si>
+    <t>Nicki Minaj</t>
+  </si>
+  <si>
+    <t>Maroon 5 Featuring Christina Aguilera</t>
+  </si>
+  <si>
+    <t>The Black Eyed Peas</t>
+  </si>
+  <si>
+    <t>Jennifer Lopez Featuring Pitbull</t>
+  </si>
+  <si>
+    <t>Rihanna</t>
+  </si>
+  <si>
+    <t>Foster The People</t>
+  </si>
+  <si>
+    <t>Enrique Iglesias Featuring Ludacris &amp; DJ Frank E</t>
+  </si>
+  <si>
+    <t>P!nk</t>
+  </si>
+  <si>
+    <t>Lady Gaga</t>
+  </si>
+  <si>
+    <t>Rihanna Featuring Drake</t>
+  </si>
+  <si>
+    <t>Chris Brown Featuring Lil Wayne &amp; Busta Rhymes</t>
+  </si>
+  <si>
+    <t>Jeremih Featuring 50 Cent</t>
+  </si>
+  <si>
+    <t>Lil Wayne</t>
+  </si>
+  <si>
+    <t>Adele</t>
+  </si>
+  <si>
+    <t>OneRepublic</t>
+  </si>
+  <si>
+    <t>Britney Spears</t>
+  </si>
+  <si>
+    <t>Lupe Fiasco</t>
+  </si>
+  <si>
+    <t>Ke$ha</t>
+  </si>
+  <si>
+    <t>Wiz Khalifa</t>
+  </si>
+  <si>
+    <t>Hot Chelle Rae</t>
+  </si>
+  <si>
+    <t>Bad Meets Evil Featuring Bruno Mars</t>
+  </si>
+  <si>
+    <t>The Band Perry</t>
+  </si>
+  <si>
+    <t>Gym Class Heroes Featuring Adam Levine</t>
+  </si>
+  <si>
+    <t>Diddy - Dirty Money Featuring Skylar Grey</t>
+  </si>
+  <si>
+    <t>Lil Wayne Featuring Cory Gunz</t>
+  </si>
+  <si>
+    <t>Lady Antebellum</t>
+  </si>
+  <si>
+    <t>Jason Aldean</t>
+  </si>
+  <si>
+    <t>Taio Cruz</t>
+  </si>
+  <si>
+    <t>Waka Flocka Flame Featuring Roscoe Dash &amp; Wale</t>
+  </si>
+  <si>
+    <t>DJ Khaled Featuring Drake, Rick Ross &amp; Lil Wayne</t>
+  </si>
+  <si>
+    <t>Cobra Starship Featuring Sabi</t>
+  </si>
+  <si>
+    <t>Chris Brown</t>
+  </si>
+  <si>
+    <t>Nicki Minaj Featuring Drake</t>
+  </si>
+  <si>
+    <t>Dr. Dre Featuring Eminem &amp; Skylar Grey</t>
+  </si>
+  <si>
+    <t>Nelly</t>
+  </si>
+  <si>
+    <t>Kelly Rowland Featuring Lil Wayne</t>
+  </si>
+  <si>
+    <t>Edward Maya &amp; Vika Jigulina</t>
+  </si>
+  <si>
+    <t>Christina Perri</t>
+  </si>
+  <si>
+    <t>LMFAO</t>
+  </si>
+  <si>
+    <t>Far*East Movement Featuring Ryan Tedder</t>
+  </si>
+  <si>
+    <t>Kanye West</t>
+  </si>
+  <si>
+    <t>Usher</t>
+  </si>
+  <si>
+    <t>Avril Lavigne</t>
+  </si>
+  <si>
+    <t>Tinie Tempah Featuring Eric Turner</t>
+  </si>
+  <si>
+    <t>Trey Songz Featuring Nicki Minaj</t>
+  </si>
+  <si>
+    <t>Usher Featuring Pitbull</t>
+  </si>
+  <si>
+    <t>The Script</t>
+  </si>
+  <si>
+    <t>Blake Shelton</t>
+  </si>
+  <si>
+    <t>Jason Aldean With Kelly Clarkson</t>
+  </si>
+  <si>
+    <t>Rihanna Featuring Calvin Harris</t>
+  </si>
+  <si>
+    <t>Keri Hilson</t>
+  </si>
+  <si>
+    <t>Far*East Movement Featuring Cataracs &amp; Dev</t>
+  </si>
+  <si>
+    <t>David Guetta Featuring Usher</t>
+  </si>
+  <si>
+    <t>Taylor Swift</t>
+  </si>
+  <si>
+    <t>Eli Young Band</t>
+  </si>
+  <si>
+    <t>Selena Gomez &amp; The Scene</t>
+  </si>
+  <si>
+    <t>Jake Owen</t>
+  </si>
+  <si>
+    <t>Zac Brown Band Featuring Jimmy Buffett</t>
+  </si>
+  <si>
+    <t>Luke Bryan</t>
+  </si>
+  <si>
+    <t>Brad Paisley Duet With Carrie Underwood</t>
+  </si>
+  <si>
+    <t>Dev</t>
+  </si>
+  <si>
+    <t>New Boyz Featuring The Cataracs &amp; Dev</t>
+  </si>
+  <si>
+    <t>Drake</t>
+  </si>
+  <si>
+    <t>Beyonce</t>
+  </si>
+  <si>
+    <t>Jason Derulo</t>
+  </si>
+  <si>
+    <t>David Guetta Featuring Flo Rida &amp; Nicki Minaj</t>
+  </si>
+  <si>
+    <t>Rodney Atkins</t>
+  </si>
+  <si>
+    <t>Mike Posner</t>
+  </si>
+  <si>
+    <t>Miguel</t>
+  </si>
+  <si>
+    <t>Jessie J Featuring B.o.B</t>
+  </si>
+  <si>
+    <t>Lil Wayne Featuring Drake</t>
+  </si>
+  <si>
+    <t>Thompson Square</t>
+  </si>
+  <si>
+    <t>Neon Trees</t>
+  </si>
+  <si>
+    <t>Kenny Chesney Featuring Grace Potter</t>
+  </si>
+  <si>
+    <t>Zac Brown Band</t>
+  </si>
+  <si>
+    <t>Big Sean Featuring Chris Brown</t>
   </si>
   <si>
     <t>...
@@ -93,12 +633,6 @@
 ...</t>
   </si>
   <si>
-    <t>Firework</t>
-  </si>
-  <si>
-    <t>Katy Perry</t>
-  </si>
-  <si>
     <t>Do you ever feel like a plastic bag?
 Drifting through the wind
 Wanting to start againDo you ever feel, feel so paper-thin?
@@ -156,12 +690,6 @@
 Even brighter than the moon, moon, moon
 Boom, boom, boom
 Even brighter than the moon, moon, moon</t>
-  </si>
-  <si>
-    <t>E.T.</t>
-  </si>
-  <si>
-    <t>Katy Perry Featuring Kanye West</t>
   </si>
   <si>
     <t>I got a dirty mind, I got filthy ways
@@ -249,18 +777,6 @@
 Extraterrestrial</t>
   </si>
   <si>
-    <t>Give Me Everything</t>
-  </si>
-  <si>
-    <t>Pitbull Featuring Ne-Yo, Afrojack &amp; Nayer</t>
-  </si>
-  <si>
-    <t>Grenade</t>
-  </si>
-  <si>
-    <t>Bruno Mars</t>
-  </si>
-  <si>
     <t>Easy come, easy go, that's just how you live oh
 Take, take, take it all, but you never give
 Should have known you was trouble from the first kissHad your eyes wide open,
@@ -311,12 +827,6 @@
 You wouldn't do the same
 Oh, you'll never do the same
 No, no, no, no</t>
-  </si>
-  <si>
-    <t>Super Bass</t>
-  </si>
-  <si>
-    <t>Nicki Minaj</t>
   </si>
   <si>
     <t>This one is for the boys with the booming system
@@ -405,12 +915,6 @@
 Yeah, that's the super bass</t>
   </si>
   <si>
-    <t>Moves Like Jagger</t>
-  </si>
-  <si>
-    <t>Maroon 5 Featuring Christina Aguilera</t>
-  </si>
-  <si>
     <t>Oh, oh
 Just shoot for the stars, if it feels rightThen aim for my heart, if you feel like
 And take me away
@@ -474,12 +978,6 @@
 With them the moves like Jagger
 I've got the moves like Jagger
 I've got the moo-oo-oo-ooves like Jagger</t>
-  </si>
-  <si>
-    <t>Just Can't Get Enough</t>
-  </si>
-  <si>
-    <t>The Black Eyed Peas</t>
   </si>
   <si>
     <t>Boy I think about it every night and day
@@ -547,12 +1045,6 @@
 I want your lovin' right next to me
 And I can't erase ya out of my memory
 I just can't (Switch up)</t>
-  </si>
-  <si>
-    <t>On The Floor</t>
-  </si>
-  <si>
-    <t>Jennifer Lopez Featuring Pitbull</t>
   </si>
   <si>
     <t>J-Lo, ya tú sabes, no es más nada
@@ -628,12 +1120,6 @@
 Tonight we gon' be it on the floor</t>
   </si>
   <si>
-    <t>S&amp;M</t>
-  </si>
-  <si>
-    <t>Rihanna</t>
-  </si>
-  <si>
     <t>Na-na-na, come on
 Na-na-na, come on
 Na-na-na-na-na, come onNa-na-na, come on, come on, come on
@@ -699,12 +1185,6 @@
 S, S, S and M, M, M</t>
   </si>
   <si>
-    <t>Pumped Up Kicks</t>
-  </si>
-  <si>
-    <t>Foster The People</t>
-  </si>
-  <si>
     <t>Robert's got a quick hand
 He'll look around the room he won't tell you his plan
 He's got a rolled cigaretteHanging out his mouth, he's a cowboy kid
@@ -749,9 +1229,6 @@
 You better run, better run, outrun my gun
 All the other kids with the pumped up kicks
 You better run, better run faster than my bullet</t>
-  </si>
-  <si>
-    <t>Last Friday Night (T.G.I.F.)</t>
   </si>
   <si>
     <t>There's a stranger in my bed
@@ -832,9 +1309,6 @@
 But this Friday night, do it all again</t>
   </si>
   <si>
-    <t>Just The Way You Are</t>
-  </si>
-  <si>
     <t>Oh, her eyes, her eyes
 Make the stars look like they're not shinin'
 Her hair, her hairFalls perfectly without her trying
@@ -888,12 +1362,6 @@
 'Cause, girl, you're amazing
 Just the way you are
 Yeah</t>
-  </si>
-  <si>
-    <t>Tonight (I'm Lovin' You)</t>
-  </si>
-  <si>
-    <t>Enrique Iglesias Featuring Ludacris &amp; DJ Frank E</t>
   </si>
   <si>
     <t>I know you want me
@@ -958,12 +1426,6 @@
 That tonight I'm lovin' you</t>
   </si>
   <si>
-    <t>Raise Your Glass</t>
-  </si>
-  <si>
-    <t>P!nk</t>
-  </si>
-  <si>
     <t>Right, right, turn off the lights
 We gonna lose our minds tonight
 What's the deal, yo?I love when it's all too much
@@ -1016,12 +1478,6 @@
 Just come on and come on and raise your glass!
 Won't you come on and come on and raise your glass for me!
 Just come on and come on and raise your glass for me!</t>
-  </si>
-  <si>
-    <t>Born This Way</t>
-  </si>
-  <si>
-    <t>Lady Gaga</t>
   </si>
   <si>
     <t>It doesn't matter if you love him
@@ -1117,9 +1573,6 @@
 I was born this way, hey</t>
   </si>
   <si>
-    <t>F**kin' Perfect</t>
-  </si>
-  <si>
     <t>Made a wrong turn
 Once or twice
 Dug my way outBlood and fire
@@ -1196,12 +1649,6 @@
 If you ever, ever feel
 Like you're nothing
 You're fuckin' perfect to me</t>
-  </si>
-  <si>
-    <t>What's My Name?</t>
-  </si>
-  <si>
-    <t>Rihanna Featuring Drake</t>
   </si>
   <si>
     <t>Oh, na, na, what's my name?
@@ -1312,12 +1759,6 @@
 Oh, oh, oh, oh</t>
   </si>
   <si>
-    <t>Look At Me Now</t>
-  </si>
-  <si>
-    <t>Chris Brown Featuring Lil Wayne &amp; Busta Rhymes</t>
-  </si>
-  <si>
     <t>I don't see how you can hare from outside the club
 You can't even get in
 HahahaLeggo
@@ -1418,12 +1859,6 @@
 Okay
 Is that right?
 I'm fresher than a muh'fucker</t>
-  </si>
-  <si>
-    <t>Down On Me</t>
-  </si>
-  <si>
-    <t>Jeremih Featuring 50 Cent</t>
   </si>
   <si>
     <t>She want it, I can tell she want it
@@ -1538,12 +1973,6 @@
 Put it down on me</t>
   </si>
   <si>
-    <t>How To Love</t>
-  </si>
-  <si>
-    <t>Lil Wayne</t>
-  </si>
-  <si>
     <t>Cut the music up
 A lil' louder
 YeahYou had a lot of crooks tryna steal your heart
@@ -1608,12 +2037,6 @@
 How to love, how to love.</t>
   </si>
   <si>
-    <t>Someone Like You</t>
-  </si>
-  <si>
-    <t>Adele</t>
-  </si>
-  <si>
     <t>I heard that you're settled down
 That you found a girl and you're married now
 I heard that your dreams came trueGuess she gave you things I didn't give to you
@@ -1656,12 +2079,6 @@
 I'll remember, you said
 Sometimes it lasts in love, but sometimes it hurts instead
 Sometimes it lasts in love, but sometimes it hurts instead</t>
-  </si>
-  <si>
-    <t>Good Life</t>
-  </si>
-  <si>
-    <t>OneRepublic</t>
   </si>
   <si>
     <t>Woke up in London yesterday
@@ -1728,9 +2145,6 @@
 What there's to complain about</t>
   </si>
   <si>
-    <t>The Lazy Song</t>
-  </si>
-  <si>
     <t>Today I don't feel like doing anything
 I just wanna lay in my bed
 Don't feel like picking up my phone, so leave a message at the tone'Cause today I swear I'm not doing anything
@@ -1775,12 +2189,6 @@
 Nothing at all
 Woo, ooh, woo, ooh, ooh
 Nothing at all</t>
-  </si>
-  <si>
-    <t>Till The World Ends</t>
-  </si>
-  <si>
-    <t>Britney Spears</t>
   </si>
   <si>
     <t>This kitten got your tongue tied in knots, I see
@@ -1842,12 +2250,6 @@
 Keep on dancin' till the world ends
 If you feel it let it happen
 Keep on dancin' till the world ends</t>
-  </si>
-  <si>
-    <t>The Show Goes On</t>
-  </si>
-  <si>
-    <t>Lupe Fiasco</t>
   </si>
   <si>
     <t>LA-SER
@@ -1952,9 +2354,6 @@
 The show goes on</t>
   </si>
   <si>
-    <t>The Edge Of Glory</t>
-  </si>
-  <si>
     <t>There ain't no reason you and me should be alone
 Tonight, yeah, baby
 Tonight, yeah, babyBut I got a reason that you-hoo should take me home tonight
@@ -2018,12 +2417,6 @@
 With you, with you, with you, with you</t>
   </si>
   <si>
-    <t>We R Who We R</t>
-  </si>
-  <si>
-    <t>Ke$ha</t>
-  </si>
-  <si>
     <t>Hot and dangerous
 If you're one of us, then roll with us
 'Cause we make the hipsters fall in loveWhen we've got our hot-pants on and up
@@ -2084,12 +2477,6 @@
 We'll be forever young, young, y-y-y-young
 You know we're superstars
 We are who we are (Ow)</t>
-  </si>
-  <si>
-    <t>Black And Yellow</t>
-  </si>
-  <si>
-    <t>Wiz Khalifa</t>
   </si>
   <si>
     <t>Yeah, uh-huh, you know what it is
@@ -2186,12 +2573,6 @@
 Black and yellow, black and yellow</t>
   </si>
   <si>
-    <t>Tonight Tonight</t>
-  </si>
-  <si>
-    <t>Hot Chelle Rae</t>
-  </si>
-  <si>
     <t>Uno, dos, tres
 It's been a really, really messed up week
 Seven days of torture, seven days of bitterAnd my girlfriend went and cheated on me
@@ -2272,9 +2653,6 @@
 We can get crazy, let it all out it's...</t>
   </si>
   <si>
-    <t>Blow</t>
-  </si>
-  <si>
     <t>Dance
 Back door, cracked we don't need a keyWe get in for free
 No VIP sleaze
@@ -2336,12 +2714,6 @@
 This place's about to blow-oh-oh-oh
 Blow-oh-oh-oh
 This place's about to blow</t>
-  </si>
-  <si>
-    <t>Lighters</t>
-  </si>
-  <si>
-    <t>Bad Meets Evil Featuring Bruno Mars</t>
   </si>
   <si>
     <t>This one's for you and me, living out our dreams
@@ -2436,12 +2808,6 @@
 A sky full of lighters</t>
   </si>
   <si>
-    <t>If I Die Young</t>
-  </si>
-  <si>
-    <t>The Band Perry</t>
-  </si>
-  <si>
     <t>If I die young, bury me in satin
 Lay me down on a bed of roses
 Sink me in the river at dawnSend me away with the words of a love song
@@ -2484,12 +2850,6 @@
 The sharp knife of a short life
 Well, I've had just enough time
 So put on your best boys, and I'll wear my pearls</t>
-  </si>
-  <si>
-    <t>Stereo Hearts</t>
-  </si>
-  <si>
-    <t>Gym Class Heroes Featuring Adam Levine</t>
   </si>
   <si>
     <t>My hearts a stereo
@@ -2555,9 +2915,6 @@
 Just sing along to my stereo
 Oh oh oh oh oh oh to my stereo
 Oh oh oh to sing along to my stereo</t>
-  </si>
-  <si>
-    <t>The Time (Dirty Bit)</t>
   </si>
   <si>
     <t>I had the time of my life
@@ -2666,12 +3023,6 @@
 Let...</t>
   </si>
   <si>
-    <t>Coming Home</t>
-  </si>
-  <si>
-    <t>Diddy - Dirty Money Featuring Skylar Grey</t>
-  </si>
-  <si>
     <t>I'm coming home
 I'm coming home
 Tell the world I'm coming homeLet the rain wash away all the pain of yesterday
@@ -2760,15 +3111,6 @@
 Tell the world that I'm coming... home</t>
   </si>
   <si>
-    <t>Hey Baby (Drop It To The Floor)</t>
-  </si>
-  <si>
-    <t>Pitbull Featuring T-Pain</t>
-  </si>
-  <si>
-    <t>Only Girl (In The World)</t>
-  </si>
-  <si>
     <t>La-la-la la
 La-la-la la
 La-la-la la (Uh, yeah)La la la la
@@ -2826,12 +3168,6 @@
 Girl in the world
 Only girl in the world
 Girl in the world</t>
-  </si>
-  <si>
-    <t>6 Foot 7 Foot</t>
-  </si>
-  <si>
-    <t>Lil Wayne Featuring Cory Gunz</t>
   </si>
   <si>
     <t>Six-foot, seven-foot, eight-foot bunch
@@ -2930,12 +3266,6 @@
 Gimme money banana (Hey)</t>
   </si>
   <si>
-    <t>Just A Kiss</t>
-  </si>
-  <si>
-    <t>Lady Antebellum</t>
-  </si>
-  <si>
     <t>Lyin' - here with you so close to me
 It's hard to fight these feelin's when it feels so hard to breathe
 I'm caught up in this momentCaught up in your smile
@@ -2973,12 +3303,6 @@
 So, baby I'm alright
 Oh, let's do this right with just a kiss goodnight
 With a kiss goodnight, kiss goodnight</t>
-  </si>
-  <si>
-    <t>Dirt Road Anthem</t>
-  </si>
-  <si>
-    <t>Jason Aldean</t>
   </si>
   <si>
     <t>Yeah, I'm chillin' on a dirt road
@@ -3044,12 +3368,6 @@
 That's right</t>
   </si>
   <si>
-    <t>Dynamite</t>
-  </si>
-  <si>
-    <t>Taio Cruz</t>
-  </si>
-  <si>
     <t>I-I-I-I-I-I
 I came to dance, dance, dance, danceI hit the floor 'cause that's my plans, plans, plans, plans
 I'm wearing all my favorite brands, brands, brands, brands
@@ -3092,12 +3410,6 @@
 We gon' light it up like it's dynamite
 'Cause I told you once, now I told you twice
 We gon' light it up like it's dynamite</t>
-  </si>
-  <si>
-    <t>No Hands</t>
-  </si>
-  <si>
-    <t>Waka Flocka Flame Featuring Roscoe Dash &amp; Wale</t>
   </si>
   <si>
     <t>Listen to this track, bitch
@@ -3187,9 +3499,6 @@
 Le'go!</t>
   </si>
   <si>
-    <t>I Wanna Go</t>
-  </si>
-  <si>
     <t>Lately I've been stuck imagining
 What I wanna do and what I really think
 Time to blow outBe a little inappropriate
@@ -3240,12 +3549,6 @@
 I-I-I wanna sho-o-ow all the di-i-irt
 I got running through my mind
 Wo-oh-oh</t>
-  </si>
-  <si>
-    <t>I'm On One</t>
-  </si>
-  <si>
-    <t>DJ Khaled Featuring Drake, Rick Ross &amp; Lil Wayne</t>
   </si>
   <si>
     <t>I'm on one
@@ -3319,12 +3622,6 @@
 Tunechi be the name, don't ask me how I got it
 I'm killin' these hoes I swear I'm tryna stop the violence
 Young mula baby, YMCMB</t>
-  </si>
-  <si>
-    <t>You Make Me Feel...</t>
-  </si>
-  <si>
-    <t>Cobra Starship Featuring Sabi</t>
   </si>
   <si>
     <t>La la la la la
@@ -3414,12 +3711,6 @@
 La la la la la</t>
   </si>
   <si>
-    <t>Yeah 3X</t>
-  </si>
-  <si>
-    <t>Chris Brown</t>
-  </si>
-  <si>
     <t>Move your body, out on the floor
 Put your troubles aside
 Start living anybody can let goThrow away all your problems
@@ -3477,12 +3768,6 @@
 Yeah, yeah, yeah, yeah, yeah, yeah
 Tonight is the night
 Tonight is the night, tonight is the night</t>
-  </si>
-  <si>
-    <t>Moment 4 Life</t>
-  </si>
-  <si>
-    <t>Nicki Minaj Featuring Drake</t>
   </si>
   <si>
     <t>I fly with the stars in the skies
@@ -3550,12 +3835,6 @@
 'Cause in this moment I just feel so alive, alive, alive
 I wish that I could have this moment for life, for life, for life
 This is my moment I just feel so alive, alive, alive, for life</t>
-  </si>
-  <si>
-    <t>I Need A Doctor</t>
-  </si>
-  <si>
-    <t>Dr. Dre Featuring Eminem &amp; Skylar Grey</t>
   </si>
   <si>
     <t>I'm about to lose my mind
@@ -3646,12 +3925,6 @@
 To bring me back to life</t>
   </si>
   <si>
-    <t>Just A Dream</t>
-  </si>
-  <si>
-    <t>Nelly</t>
-  </si>
-  <si>
     <t>Uh, uh, uh
 I was thinking 'bout her, thinking 'bout me
 Thinking 'bout us, what we gon' beOpened my eyes yeah, it was only just a dream
@@ -3715,12 +3988,6 @@
 I realize yeah, it was only just a dream</t>
   </si>
   <si>
-    <t>Motivation</t>
-  </si>
-  <si>
-    <t>Kelly Rowland Featuring Lil Wayne</t>
-  </si>
-  <si>
     <t>Go, go, go, go
 (Turn the lights off)Oh lover, don't you dare slow down
 Go longer, you can last more rounds
@@ -3767,12 +4034,6 @@
 You can do it, I believe in you, baby
 So close from here
 Baby, I'mma be your motivation</t>
-  </si>
-  <si>
-    <t>Stereo Love</t>
-  </si>
-  <si>
-    <t>Edward Maya &amp; Vika Jigulina</t>
   </si>
   <si>
     <t>When you gonna stop breaking my heart?
@@ -3832,12 +4093,6 @@
 My only dream is about you and I</t>
   </si>
   <si>
-    <t>Jar Of Hearts</t>
-  </si>
-  <si>
-    <t>Christina Perri</t>
-  </si>
-  <si>
     <t>I know I can't take one more step towards you
 'Cause all that's waiting is regret
 Don't you know I'm not your ghost anymoreYou lost the love I loved the most
@@ -3890,9 +4145,6 @@
 Who do you think you are?
 Who do you think you are?
 Who do you think you are?</t>
-  </si>
-  <si>
-    <t>Roll Up</t>
   </si>
   <si>
     <t>I roll up, I roll up, I roll up
@@ -3972,12 +4224,6 @@
 I roll up, I roll up, I roll up, whenever you call, baby, I roll up...</t>
   </si>
   <si>
-    <t>Sexy And I Know It</t>
-  </si>
-  <si>
-    <t>LMFAO</t>
-  </si>
-  <si>
     <t>Yeah, yeah
 When I walk on by, girls be looking like damn he fly
 I pimp to the beatWalking on the street in my new LaFreak, yeah
@@ -4036,12 +4282,6 @@
 Girl look at that body
 I-I-I work out, out, out...
 I'm sexy and I know it</t>
-  </si>
-  <si>
-    <t>Rocketeer</t>
-  </si>
-  <si>
-    <t>Far*East Movement Featuring Ryan Tedder</t>
   </si>
   <si>
     <t>Here we go, come with me
@@ -4104,12 +4344,6 @@
 Let's fly (Fly, fly, fly, fly)
 Up, up, here we go, go
 Where we stop nobody knows, knows</t>
-  </si>
-  <si>
-    <t>All Of The Lights</t>
-  </si>
-  <si>
-    <t>Kanye West</t>
   </si>
   <si>
     <t>All of the lights (All of the lights)
@@ -4199,9 +4433,6 @@
 (I tried to tell you but all I could say)</t>
   </si>
   <si>
-    <t>Hold It Against Me</t>
-  </si>
-  <si>
     <t>Hey, over there, please forgive me
 If I'm coming on too strong
 Hate to stare but you're winningAnd they're playing my favorite song
@@ -4253,12 +4484,6 @@
 Would you hold it against me?</t>
   </si>
   <si>
-    <t>More</t>
-  </si>
-  <si>
-    <t>Usher</t>
-  </si>
-  <si>
     <t>Watch me as I dance under the spotlight
 Listen to the people screaming out more, and more
 Cos I create the feeling that keep em coming back,Yeah, I create the feeling that keep em coming back,
@@ -4306,12 +4531,6 @@
 Gonna push it to the limit, give it more
 Ooooooooo...
 Gotta push it to the limit, give it more</t>
-  </si>
-  <si>
-    <t>What The Hell</t>
-  </si>
-  <si>
-    <t>Avril Lavigne</t>
   </si>
   <si>
     <t>You say that I'm messing with your head
@@ -4365,12 +4584,6 @@
 All my life I've been good
 But, now what the hell
 La la la la la la la la</t>
-  </si>
-  <si>
-    <t>Written In The Stars</t>
-  </si>
-  <si>
-    <t>Tinie Tempah Featuring Eric Turner</t>
   </si>
   <si>
     <t>Oh written in the stars
@@ -4442,18 +4655,6 @@
 Seasons come and go
 But I will never change
 And I'm on my way</t>
-  </si>
-  <si>
-    <t>Bottoms Up</t>
-  </si>
-  <si>
-    <t>Trey Songz Featuring Nicki Minaj</t>
-  </si>
-  <si>
-    <t>DJ Got Us Fallin' In Love</t>
-  </si>
-  <si>
-    <t>Usher Featuring Pitbull</t>
   </si>
   <si>
     <t>Usher
@@ -4528,12 +4729,6 @@
 Thank you, DJ, hehe!</t>
   </si>
   <si>
-    <t>For The First Time</t>
-  </si>
-  <si>
-    <t>The Script</t>
-  </si>
-  <si>
     <t>She's all laid up in bed with a broken heart
 While I'm drinking Jack all alone in my local bar
 And we don't know how, how we got into this mad situationOnly doing things out of frustration
@@ -4586,12 +4781,6 @@
 Oh, these times are hard
 Yeah, they're making us crazy
 Don't give up on me, baby</t>
-  </si>
-  <si>
-    <t>Honey Bee</t>
-  </si>
-  <si>
-    <t>Blake Shelton</t>
   </si>
   <si>
     <t>Girl I been thinkin' 'bout us
@@ -4649,18 +4838,6 @@
 I'll be your honey bee</t>
   </si>
   <si>
-    <t>Don't You Wanna Stay</t>
-  </si>
-  <si>
-    <t>Jason Aldean With Kelly Clarkson</t>
-  </si>
-  <si>
-    <t>We Found Love</t>
-  </si>
-  <si>
-    <t>Rihanna Featuring Calvin Harris</t>
-  </si>
-  <si>
     <t>Yellow diamonds in the light
 Now we're standing side by side
 As your shadow crosses mineWhat it takes to come alive
@@ -4691,12 +4868,6 @@
 We found love in a hopeless place
 We found love in a hopeless place
 We found love in a hopeless place</t>
-  </si>
-  <si>
-    <t>Pretty Girl Rock</t>
-  </si>
-  <si>
-    <t>Keri Hilson</t>
   </si>
   <si>
     <t>I can do the pretty girl rock, rock, rock
@@ -4778,9 +4949,6 @@
 Don't hate me 'cause I'm beautiful (oh ooh oh oh oh oh)</t>
   </si>
   <si>
-    <t>You And I</t>
-  </si>
-  <si>
     <t>It's been a long time since I came around
 Been a long time, but I'm back in town
 And this time I'm not leaving without youYou taste like whiskey when you kiss me, oh
@@ -4835,12 +5003,6 @@
 It's been a long time since I came around
 Been a long time, but I'm back in town
 And this time I'm not leaving without you</t>
-  </si>
-  <si>
-    <t>Like A G6</t>
-  </si>
-  <si>
-    <t>Far*East Movement Featuring Cataracs &amp; Dev</t>
   </si>
   <si>
     <t>Poppin bottles in the ice, like a blizzard
@@ -4903,18 +5065,6 @@
 Now now now now now now I'm feelin so fly like a G6</t>
   </si>
   <si>
-    <t>Without You</t>
-  </si>
-  <si>
-    <t>David Guetta Featuring Usher</t>
-  </si>
-  <si>
-    <t>Back To December</t>
-  </si>
-  <si>
-    <t>Taylor Swift</t>
-  </si>
-  <si>
     <t>I'm so glad you made time to see me
 How's life, tell me how's your family
 I haven't seen them in a whileYou've been good, busier then ever
@@ -4956,9 +5106,6 @@
 I'd go back to December, turn around and change my own mind
 I'd go back to December all the time
 All the time</t>
-  </si>
-  <si>
-    <t>Teenage Dream</t>
   </si>
   <si>
     <t>You think I'm pretty
@@ -5052,12 +5199,6 @@
 (Tonight, tonight, tonight, tonight, tonight, tonight)</t>
   </si>
   <si>
-    <t>Crazy Girl</t>
-  </si>
-  <si>
-    <t>Eli Young Band</t>
-  </si>
-  <si>
     <t>It's good there was a full moon out that night
 I can still recall your body in the pale white light
 When love's not love it sure felt rightWho would have known you were the crazy type.
@@ -5092,9 +5233,6 @@
 Time seemed to stop for us baby didn't it?
 When we were innocent
 When we were innocent</t>
-  </si>
-  <si>
-    <t>Cheers (Drink To That)</t>
   </si>
   <si>
     <t>Takin' shots in here, you want one?
@@ -5175,12 +5313,6 @@
 (I drink to that)
 Yeah-e-yeah, yeah-e-yeah, yeah-e-yeah
 Yeah-e-yeah, yeah-e-yeah, yeah-e-yeah</t>
-  </si>
-  <si>
-    <t>Who Says</t>
-  </si>
-  <si>
-    <t>Selena Gomez &amp; The Scene</t>
   </si>
   <si>
     <t>I wouldn't wanna be anybody else, hey
@@ -5264,18 +5396,6 @@
 Who says?</t>
   </si>
   <si>
-    <t>Barefoot Blue Jean Night</t>
-  </si>
-  <si>
-    <t>Jake Owen</t>
-  </si>
-  <si>
-    <t>Knee Deep</t>
-  </si>
-  <si>
-    <t>Zac Brown Band Featuring Jimmy Buffett</t>
-  </si>
-  <si>
     <t>Gonna put the the world away for a minute
 Pretend I don't live in it
 Sunshine gonna wash my blues awayHad sweet love but I lost it
@@ -5319,12 +5439,6 @@
 You never know until you try
 When you lose yourself
 You find the key to paradise</t>
-  </si>
-  <si>
-    <t>Country Girl (Shake It For Me)</t>
-  </si>
-  <si>
-    <t>Luke Bryan</t>
   </si>
   <si>
     <t>Hey girl
@@ -5406,12 +5520,6 @@
 Girl, shake it for me</t>
   </si>
   <si>
-    <t>Remind Me</t>
-  </si>
-  <si>
-    <t>Brad Paisley Duet With Carrie Underwood</t>
-  </si>
-  <si>
     <t>We didn't care if people stared,
 We'd make out in a crowd somewhere.
 Somebody'd tell us to get a room,It's hard to believe that was me and you.
@@ -5471,12 +5579,6 @@
 Every year.</t>
   </si>
   <si>
-    <t>In The Dark</t>
-  </si>
-  <si>
-    <t>Dev</t>
-  </si>
-  <si>
     <t>On my waist, through my hair
 Think about it when you touch me there
 Close my eyes, here you are all alone dancing in the darkTell me baby if it's wrong
@@ -5532,18 +5634,6 @@
 Dancing in the dark
 Ooh la la, ooh la la, ooh la la
 Dancing in the dark.</t>
-  </si>
-  <si>
-    <t>Backseat</t>
-  </si>
-  <si>
-    <t>New Boyz Featuring The Cataracs &amp; Dev</t>
-  </si>
-  <si>
-    <t>Headlines</t>
-  </si>
-  <si>
-    <t>Drake</t>
   </si>
   <si>
     <t>I might be too strung out on compliments, overdosed on confidence
@@ -5615,12 +5705,6 @@
 It happened over time (time time time)</t>
   </si>
   <si>
-    <t>Best Thing I Never Had</t>
-  </si>
-  <si>
-    <t>Beyonce</t>
-  </si>
-  <si>
     <t>What goes around comes back around (Hey, my baby)
 What goes around comes back around (Hey, my baby)
 What goes around comes back around (Hey, my baby)What goes around comes back around
@@ -5683,12 +5767,6 @@
 Bet it sucks to be you right now</t>
   </si>
   <si>
-    <t>Don't Wanna Go Home</t>
-  </si>
-  <si>
-    <t>Jason Derulo</t>
-  </si>
-  <si>
     <t>Jason Derulo
 Check that out, what they playin'
 That's my song, that's my songWhere my drinks
@@ -5747,12 +5825,6 @@
 To the flo oh oh oh
 Ayo me say day oh
 Daylight come and we don't wanna go home</t>
-  </si>
-  <si>
-    <t>Where Them Girls At</t>
-  </si>
-  <si>
-    <t>David Guetta Featuring Flo Rida &amp; Nicki Minaj</t>
   </si>
   <si>
     <t>So many girls in here, where do I begin?
@@ -5817,9 +5889,6 @@
 Where them girls at, girls at?
 Where them girls at, girls at?
 So go get them, we can all be friends</t>
-  </si>
-  <si>
-    <t>She Ain't You</t>
   </si>
   <si>
     <t>She a-ain't
@@ -5916,12 +5985,6 @@
 No, she ain't you</t>
   </si>
   <si>
-    <t>Take A Back Road</t>
-  </si>
-  <si>
-    <t>Rodney Atkins</t>
-  </si>
-  <si>
     <t>Sit in that six lane backed up traffic
 Horns are honking, I've about had it
 I'm looking for an exit signGotta get out of here, get it all off my mind
@@ -5974,12 +6037,6 @@
 Way down, way down, way down some old back road</t>
   </si>
   <si>
-    <t>Please Don't Go</t>
-  </si>
-  <si>
-    <t>Mike Posner</t>
-  </si>
-  <si>
     <t>Let's run away from these lies
 Back to yesterday, safe tonight
 I feel the sun creeping up like tick tockI'm trying to keep you in my head but if not
@@ -6028,12 +6085,6 @@
 Baby please don't go, go, go, go
 Baby, please don't, baby, please don't
 Baby please don't run away</t>
-  </si>
-  <si>
-    <t>Sure Thing</t>
-  </si>
-  <si>
-    <t>Miguel</t>
   </si>
   <si>
     <t>Love you like a brother
@@ -6132,12 +6183,6 @@
 Respect you like a lover</t>
   </si>
   <si>
-    <t>Price Tag</t>
-  </si>
-  <si>
-    <t>Jessie J Featuring B.o.B</t>
-  </si>
-  <si>
     <t>Okay, Coconut Man, Moonheads, and me
 You ready?Seems like everybody's got a price
 I wonder how they sleep at night
@@ -6231,9 +6276,6 @@
 Ah</t>
   </si>
   <si>
-    <t>God Gave Me You</t>
-  </si>
-  <si>
     <t>I've been a walkin' heartache
 I've made a mess of me
 The person that I've been latelyAin't who I wanna be
@@ -6273,12 +6315,6 @@
 There are no words here left to say, it's true
 God gave me you, gave me you
 He gave me you</t>
-  </si>
-  <si>
-    <t>She Will</t>
-  </si>
-  <si>
-    <t>Lil Wayne Featuring Drake</t>
   </si>
   <si>
     <t>Young Money
@@ -6374,12 +6410,6 @@
 She will, she will, she will</t>
   </si>
   <si>
-    <t>Are You Gonna Kiss Me Or Not</t>
-  </si>
-  <si>
-    <t>Thompson Square</t>
-  </si>
-  <si>
     <t>We were sittin' up there on your momma's roof
 Talkin' 'bout everything under the moon
 With the smell of honeysuckle and your perfumeAll I could think about was my next move
@@ -6418,12 +6448,6 @@
 Yeah baby, I love you a lot
 I really think we've got a shot
 Are you gonna kiss me or not?</t>
-  </si>
-  <si>
-    <t>Animal</t>
-  </si>
-  <si>
-    <t>Neon Trees</t>
   </si>
   <si>
     <t>Here we go again
@@ -6493,12 +6517,6 @@
 Say goodbye to my heart tonight</t>
   </si>
   <si>
-    <t>You And Tequila</t>
-  </si>
-  <si>
-    <t>Kenny Chesney Featuring Grace Potter</t>
-  </si>
-  <si>
     <t>Baby here I am again
 Kickin' dust in the Canyon wind
 Waitin' for that sun to go downMade it up Mulholland Drive
@@ -6533,18 +6551,6 @@
 You and Tequila
 You and Tequila
 Make me crazy</t>
-  </si>
-  <si>
-    <t>Colder Weather</t>
-  </si>
-  <si>
-    <t>Zac Brown Band</t>
-  </si>
-  <si>
-    <t>My Last</t>
-  </si>
-  <si>
-    <t>Big Sean Featuring Chris Brown</t>
   </si>
   <si>
     <t>Hands up in the air
@@ -6636,16 +6642,200 @@
 All, all, all, all, all, all, all
 Like I never had it at all</t>
   </si>
+  <si>
+    <t>Pitbull Featuring T-Pain</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mr. Worldwide
+T-Pain
+El que no vale consejo, no llega viejo
+So listen up
+Let her go, la, la, la
+If your girl wanna play, let her go
+Said let her go, la, la, la
+If your girl wanna play, let her go
+Said let her go, la, la, la
+If your girl wanna play, let her go
+Said let her go, la, la, la
+If your girl wanna play, let her go (Got it Pain?)
+Hey, baby girl, what you doin' tonight?
+I wanna see what you got in store (Hey, hey baby)
+You're givin' it your all when you're dancin' on me
+I wanna see if you give me some more (Hey, hey baby)
+You can be my girl, I can be your man
+And we can pump this jam however you want (Hey, hey baby)
+Pump it from the side, pump it upside down
+Or we can pump it from the back and the front (Hey, hey baby)
+Ooh baby, baby, la, la, la, la, la, la, la (Uh-huh)
+Ooh baby, baby, la, la, la, la, la, la, la (Uh-huh)
+Ooh baby, baby, la, la, la, la, la, la, la (Uh-huh)
+Ooh baby, baby, la, la, la, la, la, la, la (Hey, hey, baby)
+Ooh, drop it to the floor, make me wanna say hey, baby (You can have whatever you want)
+Yeah, you can shake some more, make me wanna say hey, baby (You can have whatever you like)
+Ooh, you got it 'cause you make me wanna say hey, baby (You're the one that I want)
+Yeah, don't stop it... (I want you tonight)
+I'm a Dade County, self-paid, self-made millionaire
+I used to play around the world
+Now I'm around the world, gettin' paid
+Girl problems, no problems
+Don't hate the game, that won't solve it
+I wanna get wit' ya, mami
+Now let me see where the Lord split ya (dale)
+Hey baby girl, what you doin' tonight?
+I wanna see what you got in store (Hey, hey baby)
+Givin' it your all when you're dancin' on me
+I wanna see if you can give me some more (Hey, hey baby)
+You can be my girl I can be your man
+And we can pump this jam however you want (Hey, hey baby)
+Pump it from the side, pump it upside down
+Or we can pump it from the back and the front (Hey, hey baby)
+Ooh baby, baby, la, la, la, la, la, la, la (Uh-huh)
+Ooh baby, baby, la, la, la, la, la, la, la (Uh-huh)
+Ooh baby, baby, la, la, la, la, la, la, la (Uh-huh)
+Ooh baby, baby, la, la, la, la, la, la, la (Hey, hey baby)
+Ooh, drop it to the floor, make me wanna say hey, baby (You can have whatever you want)
+Yeah, you can shake some more, make me wanna say hey, baby (You can have whatever you like)
+Ooh, you got it 'cause you make me wanna say hey, baby (You're the one that I want)
+Yeah, don't stop it, 'cause you make me wanna say... (I want you tonight)
+Made money, make money
+This Chico right here, gotta eat, baby
+If you scared of money, don't make money
+That's how it goes in the street, baby
+But enough about the nonsense
+Baby girl, take a shock to your conscious
+Not a goon or a goblin, I'm a monster
+'Cause I hit all the baddest women in the world, gangster
+Ooh baby, baby, la, la, la, la, la, la, la
+Ooh baby, baby, la, la, la, la, la, la, la
+Ooh baby, baby, la, la, la, la, la, la, la
+Ooh baby, baby, la, la, la, la, la, la, la (Hey, hey baby)
+Ooh, drop it to the floor, make me wanna say hey, baby (Hey, hey baby)
+Yeah, you can shake some more, make me wanna say hey baby (Hey, hey baby)
+Ooh, you got it 'cause you make me wanna say hey, baby (Hey, hey baby)
+Yeah, don't stop it, 'cause you make me wanna say...
+Ooh baby, baby, la, la, la, la, la, la, la (Uh-huh)
+Ooh baby, baby, la, la, la, la, la, la, la (Uh-huh)
+Ooh baby, baby, la, la, la, la, la, la, la (Uh-huh)
+Ooh baby, baby, la, la, la, la, la, la, la (Hey, hey baby)
+Ooh, drop it to the floor, make me wanna say hey, baby (You can have whatever you want)
+Yeah, you can shake some more, make me wanna say hey, baby (You can have whatever you like)
+Ooh, you got it 'cause you make me wanna say hey, baby (You're the one that I want)
+Yeah, don't stop it... (I want you tonight)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A full moon shinin' bright
+Edge of the water, we were feelin' alright
+Back down a country road
+The girls are always hot, and the beer is ice cold
+Cadillac, horns on the hood
+My buddy Frankie had his dad him up good
+Girls smile when we roll by
+They hop in the back, and we cruise to the river side
+(Whoa-oh)
+Never gonna grow up (Whoa-oh)
+Never gonna slow down (Whoa-oh)
+We were shinin' like lighters in the dark
+In the middle of a rock show (Whoa-oh)
+We were doin' it right (Whoa-oh)
+We were comin' alive (Whoa-oh)
+Yeah, caught in a southern summer, barefoot, blue jean night
+Blue eyes and auburn hair
+Sittin' lookin' pretty by the fire in a lawn chair
+New to town, and new to me
+Her ruby red lips was sippin' on sweet tea
+Shot me in love like a shootin' star
+So, I grabbed a beer and my old guitar
+Then we sat around till the break of dawn
+Howlin' and singin' our favorite song
+(Whoa-oh)
+Never gonna grow up (Whoa-oh)
+Never gonna slow down (Whoa-oh)
+We were shinin' like lighters in the dark
+In the middle of a rock show (Whoa-oh)
+We were doin' it right (Whoa-oh)
+We were comin' alive (Whoa-oh)
+Yeah, caught up in a southern summer, barefoot, blue jean night
+Whoa-oh, never gonna grow up, ha
+Never gonna slow down
+We were shinin' like lighters in the dark
+In the middle of a rock show (Whoa-oh)
+We were doin' it right (Whoa-oh)
+We were comin' alive (Whoa-oh)
+Yeah, caught in a southern summer, barefoot, blue jean night
+(Whoa-oh)
+Barefoot, blue jean night (Whoa-oh)
+Barefoot, blue jean night (Whoa-oh)
+Barefoot, blue jean night (Whoa-oh, whoa-oh, whoa-oh)
+Barefoot, blue jean night (Whoa-oh, whoa-oh, whoa-oh)
+Oh, what's a barefoot, blue jean night (Whoa-oh, whoa-oh, whoa-oh)
+Barefoot, blue jean night (Whoa-oh, whoa-oh, whoa-oh)
+Barefoot, blue jean night</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>She'd trade Colorado if he'd take her with him
+Closes the door before the winter lets the cold in
+And wonders if her love is strong enough to make him stay
+She's answered by the tail lights
+Shining through the window pane
+He said I wanna see you again
+But I'm stuck in colder weather
+Maybe tomorrow will be better
+Can I call you then
+She said you're ramblin'
+You ain't ever gonna change
+You gotta gypsy soul to blame
+And you were born for leavin'
+At a truck stop diner just outside of Lincoln
+The night is black as the coffee he was drinkin'
+And in the waitress' eyes he sees the same 'ol light shinin'
+He thinks of Colorado
+And the girl he left behind
+He said I wanna see you again
+But I'm stuck in colder weather
+Maybe tomorrow will be better
+Can I call you then
+She said you're ramblin'
+You ain't ever gonna change
+Got a gypsy soul to blame
+And you were born for leavin'(born for leavin')
+Well it's a winding road
+When your in the lost and found
+You're a lover I'm a runner
+We go 'round 'n 'round
+And I love you but I leave you
+I don't want you but I need you
+You know it's you who calls me back here
+Oh I wanna see you again
+But I'm stuck in colder weather
+Maybe tomorrow will be better
+Can I call you then
+Cause I'm a ramblin' man
+I ain't ever gonna change
+I gotta gypsy soul
+And I was born for leavin' (born for leavin')
+And when I close my eyes I see you
+No matter where I am
+I can smell your perfume through these whispering pines
+I'm with your ghost again
+It's a shame about the weather
+I know soon we'll be together
+And I can't wait till then
+I can't wait till then</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -6653,8 +6843,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -6666,7 +6863,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -6674,24 +6871,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6733,7 +6956,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6765,9 +6988,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6799,6 +7040,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6974,1079 +7233,1681 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C99"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" s="1">
+        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E3">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E4">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E5">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
+      <c r="C6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E6">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" t="s">
+        <v>187</v>
+      </c>
+      <c r="E7">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" t="s">
+        <v>188</v>
+      </c>
+      <c r="E8">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
+      <c r="C9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" t="s">
+        <v>189</v>
+      </c>
+      <c r="E9">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D10" t="s">
+        <v>190</v>
+      </c>
+      <c r="E10">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
+      <c r="C11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11" t="s">
+        <v>191</v>
+      </c>
+      <c r="E11">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D12" t="s">
+        <v>192</v>
+      </c>
+      <c r="E12">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
         <v>15</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" t="s">
+        <v>193</v>
+      </c>
+      <c r="E13">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
+      <c r="C14" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" t="s">
+        <v>194</v>
+      </c>
+      <c r="E14">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
         <v>17</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C15" t="s">
+        <v>113</v>
+      </c>
+      <c r="D15" t="s">
+        <v>195</v>
+      </c>
+      <c r="E15">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
         <v>18</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D16" t="s">
+        <v>196</v>
+      </c>
+      <c r="E16">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
+      <c r="C17" t="s">
+        <v>115</v>
+      </c>
+      <c r="D17" t="s">
+        <v>197</v>
+      </c>
+      <c r="E17">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
         <v>20</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D18" t="s">
+        <v>198</v>
+      </c>
+      <c r="E18">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
         <v>21</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C19" t="s">
+        <v>116</v>
+      </c>
+      <c r="D19" t="s">
+        <v>199</v>
+      </c>
+      <c r="E19">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
+      <c r="C20" t="s">
+        <v>117</v>
+      </c>
+      <c r="D20" t="s">
+        <v>200</v>
+      </c>
+      <c r="E20">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C21" t="s">
+        <v>118</v>
+      </c>
+      <c r="D21" t="s">
+        <v>201</v>
+      </c>
+      <c r="E21">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C22" t="s">
+        <v>119</v>
+      </c>
+      <c r="D22" t="s">
+        <v>202</v>
+      </c>
+      <c r="E22">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
+      <c r="C23" t="s">
+        <v>120</v>
+      </c>
+      <c r="D23" t="s">
+        <v>203</v>
+      </c>
+      <c r="E23">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
         <v>26</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C24" t="s">
+        <v>121</v>
+      </c>
+      <c r="D24" t="s">
+        <v>204</v>
+      </c>
+      <c r="E24">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
         <v>27</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C25" t="s">
+        <v>106</v>
+      </c>
+      <c r="D25" t="s">
+        <v>205</v>
+      </c>
+      <c r="E25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
+      <c r="C26" t="s">
+        <v>122</v>
+      </c>
+      <c r="D26" t="s">
+        <v>206</v>
+      </c>
+      <c r="E26">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
         <v>29</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C27" t="s">
+        <v>123</v>
+      </c>
+      <c r="D27" t="s">
+        <v>207</v>
+      </c>
+      <c r="E27">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
         <v>30</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C28" t="s">
+        <v>115</v>
+      </c>
+      <c r="D28" t="s">
+        <v>208</v>
+      </c>
+      <c r="E28">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
+      <c r="C29" t="s">
+        <v>124</v>
+      </c>
+      <c r="D29" t="s">
+        <v>209</v>
+      </c>
+      <c r="E29">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
         <v>32</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C30" t="s">
+        <v>125</v>
+      </c>
+      <c r="D30" t="s">
+        <v>210</v>
+      </c>
+      <c r="E30">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
         <v>33</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C31" t="s">
+        <v>126</v>
+      </c>
+      <c r="D31" t="s">
+        <v>211</v>
+      </c>
+      <c r="E31">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
+      <c r="C32" t="s">
+        <v>124</v>
+      </c>
+      <c r="D32" t="s">
+        <v>212</v>
+      </c>
+      <c r="E32">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
         <v>35</v>
       </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="C33" t="s">
+        <v>127</v>
+      </c>
+      <c r="D33" t="s">
+        <v>213</v>
+      </c>
+      <c r="E33">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
+      <c r="C34" t="s">
+        <v>128</v>
+      </c>
+      <c r="D34" t="s">
+        <v>214</v>
+      </c>
+      <c r="E34">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
         <v>37</v>
       </c>
-      <c r="B14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="C35" t="s">
+        <v>129</v>
+      </c>
+      <c r="D35" t="s">
+        <v>215</v>
+      </c>
+      <c r="E35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+      <c r="C36" t="s">
+        <v>109</v>
+      </c>
+      <c r="D36" t="s">
+        <v>216</v>
+      </c>
+      <c r="E36">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
         <v>39</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C37" t="s">
+        <v>130</v>
+      </c>
+      <c r="D37" t="s">
+        <v>217</v>
+      </c>
+      <c r="E37">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
         <v>40</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C38" t="s">
+        <v>273</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E38">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
+      <c r="C39" t="s">
+        <v>111</v>
+      </c>
+      <c r="D39" t="s">
+        <v>218</v>
+      </c>
+      <c r="E39">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
         <v>42</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C40" t="s">
+        <v>131</v>
+      </c>
+      <c r="D40" t="s">
+        <v>219</v>
+      </c>
+      <c r="E40">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
         <v>43</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C41" t="s">
+        <v>132</v>
+      </c>
+      <c r="D41" t="s">
+        <v>220</v>
+      </c>
+      <c r="E41">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
+      <c r="C42" t="s">
+        <v>133</v>
+      </c>
+      <c r="D42" t="s">
+        <v>221</v>
+      </c>
+      <c r="E42">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
         <v>45</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C43" t="s">
+        <v>134</v>
+      </c>
+      <c r="D43" t="s">
+        <v>222</v>
+      </c>
+      <c r="E43">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
         <v>46</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C44" t="s">
+        <v>135</v>
+      </c>
+      <c r="D44" t="s">
+        <v>223</v>
+      </c>
+      <c r="E44">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
+      <c r="C45" t="s">
+        <v>122</v>
+      </c>
+      <c r="D45" t="s">
+        <v>224</v>
+      </c>
+      <c r="E45">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
         <v>48</v>
       </c>
-      <c r="B18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="C46" t="s">
+        <v>136</v>
+      </c>
+      <c r="D46" t="s">
+        <v>225</v>
+      </c>
+      <c r="E46">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
+      <c r="C47" t="s">
+        <v>137</v>
+      </c>
+      <c r="D47" t="s">
+        <v>226</v>
+      </c>
+      <c r="E47">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
         <v>50</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C48" t="s">
+        <v>138</v>
+      </c>
+      <c r="D48" t="s">
+        <v>227</v>
+      </c>
+      <c r="E48">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
         <v>51</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C49" t="s">
+        <v>139</v>
+      </c>
+      <c r="D49" t="s">
+        <v>228</v>
+      </c>
+      <c r="E49">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
+      <c r="C50" t="s">
+        <v>140</v>
+      </c>
+      <c r="D50" t="s">
+        <v>229</v>
+      </c>
+      <c r="E50">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
         <v>53</v>
-      </c>
-      <c r="B20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B21" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>59</v>
-      </c>
-      <c r="B22" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>62</v>
-      </c>
-      <c r="B23" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" t="s">
-        <v>66</v>
-      </c>
-      <c r="C24" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>68</v>
-      </c>
-      <c r="B25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>70</v>
-      </c>
-      <c r="B26" t="s">
-        <v>71</v>
-      </c>
-      <c r="C26" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>73</v>
-      </c>
-      <c r="B27" t="s">
-        <v>74</v>
-      </c>
-      <c r="C27" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>76</v>
-      </c>
-      <c r="B28" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>78</v>
-      </c>
-      <c r="B29" t="s">
-        <v>79</v>
-      </c>
-      <c r="C29" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>81</v>
-      </c>
-      <c r="B30" t="s">
-        <v>82</v>
-      </c>
-      <c r="C30" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>84</v>
-      </c>
-      <c r="B31" t="s">
-        <v>85</v>
-      </c>
-      <c r="C31" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>87</v>
-      </c>
-      <c r="B32" t="s">
-        <v>79</v>
-      </c>
-      <c r="C32" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>89</v>
-      </c>
-      <c r="B33" t="s">
-        <v>90</v>
-      </c>
-      <c r="C33" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>92</v>
-      </c>
-      <c r="B34" t="s">
-        <v>93</v>
-      </c>
-      <c r="C34" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
-        <v>95</v>
-      </c>
-      <c r="B35" t="s">
-        <v>96</v>
-      </c>
-      <c r="C35" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
-        <v>98</v>
-      </c>
-      <c r="B36" t="s">
-        <v>24</v>
-      </c>
-      <c r="C36" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
-        <v>100</v>
-      </c>
-      <c r="B37" t="s">
-        <v>101</v>
-      </c>
-      <c r="C37" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="s">
-        <v>103</v>
-      </c>
-      <c r="B38" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" t="s">
-        <v>105</v>
-      </c>
-      <c r="B39" t="s">
-        <v>30</v>
-      </c>
-      <c r="C39" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" t="s">
-        <v>107</v>
-      </c>
-      <c r="B40" t="s">
-        <v>108</v>
-      </c>
-      <c r="C40" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" t="s">
-        <v>110</v>
-      </c>
-      <c r="B41" t="s">
-        <v>111</v>
-      </c>
-      <c r="C41" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" t="s">
-        <v>113</v>
-      </c>
-      <c r="B42" t="s">
-        <v>114</v>
-      </c>
-      <c r="C42" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" t="s">
-        <v>116</v>
-      </c>
-      <c r="B43" t="s">
-        <v>117</v>
-      </c>
-      <c r="C43" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" t="s">
-        <v>119</v>
-      </c>
-      <c r="B44" t="s">
-        <v>120</v>
-      </c>
-      <c r="C44" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" t="s">
-        <v>122</v>
-      </c>
-      <c r="B45" t="s">
-        <v>71</v>
-      </c>
-      <c r="C45" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" t="s">
-        <v>124</v>
-      </c>
-      <c r="B46" t="s">
-        <v>125</v>
-      </c>
-      <c r="C46" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" t="s">
-        <v>127</v>
-      </c>
-      <c r="B47" t="s">
-        <v>128</v>
-      </c>
-      <c r="C47" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" t="s">
-        <v>130</v>
-      </c>
-      <c r="B48" t="s">
-        <v>131</v>
-      </c>
-      <c r="C48" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" t="s">
-        <v>133</v>
-      </c>
-      <c r="B49" t="s">
-        <v>134</v>
-      </c>
-      <c r="C49" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" t="s">
-        <v>136</v>
-      </c>
-      <c r="B50" t="s">
-        <v>137</v>
-      </c>
-      <c r="C50" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" t="s">
-        <v>139</v>
-      </c>
-      <c r="B51" t="s">
-        <v>140</v>
       </c>
       <c r="C51" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" t="s">
+      <c r="D51" t="s">
+        <v>230</v>
+      </c>
+      <c r="E51">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>54</v>
+      </c>
+      <c r="C52" t="s">
         <v>142</v>
       </c>
-      <c r="B52" t="s">
+      <c r="D52" t="s">
+        <v>231</v>
+      </c>
+      <c r="E52">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>55</v>
+      </c>
+      <c r="C53" t="s">
         <v>143</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D53" t="s">
+        <v>232</v>
+      </c>
+      <c r="E53">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>56</v>
+      </c>
+      <c r="C54" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" t="s">
+      <c r="D54" t="s">
+        <v>233</v>
+      </c>
+      <c r="E54">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>57</v>
+      </c>
+      <c r="C55" t="s">
+        <v>125</v>
+      </c>
+      <c r="D55" t="s">
+        <v>234</v>
+      </c>
+      <c r="E55">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>58</v>
+      </c>
+      <c r="C56" t="s">
         <v>145</v>
       </c>
-      <c r="B53" t="s">
+      <c r="D56" t="s">
+        <v>235</v>
+      </c>
+      <c r="E56">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>59</v>
+      </c>
+      <c r="C57" t="s">
         <v>146</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D57" t="s">
+        <v>236</v>
+      </c>
+      <c r="E57">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>60</v>
+      </c>
+      <c r="C58" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" t="s">
+      <c r="D58" t="s">
+        <v>237</v>
+      </c>
+      <c r="E58">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>61</v>
+      </c>
+      <c r="C59" t="s">
+        <v>122</v>
+      </c>
+      <c r="D59" t="s">
+        <v>238</v>
+      </c>
+      <c r="E59">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>62</v>
+      </c>
+      <c r="C60" t="s">
         <v>148</v>
       </c>
-      <c r="B54" t="s">
+      <c r="D60" t="s">
+        <v>239</v>
+      </c>
+      <c r="E60">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>63</v>
+      </c>
+      <c r="C61" t="s">
         <v>149</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D61" t="s">
+        <v>240</v>
+      </c>
+      <c r="E61">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>64</v>
+      </c>
+      <c r="C62" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" t="s">
+      <c r="D62" t="s">
+        <v>241</v>
+      </c>
+      <c r="E62">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>65</v>
+      </c>
+      <c r="C63" t="s">
         <v>151</v>
       </c>
-      <c r="B55" t="s">
+      <c r="E63">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>66</v>
+      </c>
+      <c r="C64" t="s">
+        <v>152</v>
+      </c>
+      <c r="D64" t="s">
+        <v>242</v>
+      </c>
+      <c r="E64">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>67</v>
+      </c>
+      <c r="C65" t="s">
+        <v>153</v>
+      </c>
+      <c r="D65" t="s">
+        <v>243</v>
+      </c>
+      <c r="E65">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>68</v>
+      </c>
+      <c r="C66" t="s">
+        <v>154</v>
+      </c>
+      <c r="D66" t="s">
+        <v>244</v>
+      </c>
+      <c r="E66">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>69</v>
+      </c>
+      <c r="C67" t="s">
+        <v>155</v>
+      </c>
+      <c r="E67">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>70</v>
+      </c>
+      <c r="C68" t="s">
+        <v>156</v>
+      </c>
+      <c r="D68" t="s">
+        <v>245</v>
+      </c>
+      <c r="E68">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>71</v>
+      </c>
+      <c r="C69" t="s">
+        <v>157</v>
+      </c>
+      <c r="D69" t="s">
+        <v>246</v>
+      </c>
+      <c r="E69">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>72</v>
+      </c>
+      <c r="C70" t="s">
+        <v>115</v>
+      </c>
+      <c r="D70" t="s">
+        <v>247</v>
+      </c>
+      <c r="E70">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>73</v>
+      </c>
+      <c r="C71" t="s">
+        <v>158</v>
+      </c>
+      <c r="D71" t="s">
+        <v>248</v>
+      </c>
+      <c r="E71">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>74</v>
+      </c>
+      <c r="C72" t="s">
+        <v>159</v>
+      </c>
+      <c r="E72">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>75</v>
+      </c>
+      <c r="C73" t="s">
+        <v>160</v>
+      </c>
+      <c r="D73" t="s">
+        <v>249</v>
+      </c>
+      <c r="E73">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>76</v>
+      </c>
+      <c r="C74" t="s">
+        <v>103</v>
+      </c>
+      <c r="D74" t="s">
+        <v>250</v>
+      </c>
+      <c r="E74">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>77</v>
+      </c>
+      <c r="C75" t="s">
+        <v>161</v>
+      </c>
+      <c r="D75" t="s">
+        <v>251</v>
+      </c>
+      <c r="E75">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>78</v>
+      </c>
+      <c r="C76" t="s">
+        <v>111</v>
+      </c>
+      <c r="D76" t="s">
+        <v>252</v>
+      </c>
+      <c r="E76">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>79</v>
+      </c>
+      <c r="C77" t="s">
+        <v>162</v>
+      </c>
+      <c r="D77" t="s">
+        <v>253</v>
+      </c>
+      <c r="E77">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>80</v>
+      </c>
+      <c r="C78" t="s">
+        <v>163</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E78">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>81</v>
+      </c>
+      <c r="C79" t="s">
+        <v>164</v>
+      </c>
+      <c r="D79" t="s">
+        <v>254</v>
+      </c>
+      <c r="E79">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
         <v>82</v>
       </c>
-      <c r="C55" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" t="s">
-        <v>153</v>
-      </c>
-      <c r="B56" t="s">
+      <c r="C80" t="s">
+        <v>165</v>
+      </c>
+      <c r="D80" t="s">
+        <v>255</v>
+      </c>
+      <c r="E80">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>83</v>
+      </c>
+      <c r="C81" t="s">
+        <v>166</v>
+      </c>
+      <c r="D81" t="s">
+        <v>256</v>
+      </c>
+      <c r="E81">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>84</v>
+      </c>
+      <c r="C82" t="s">
+        <v>167</v>
+      </c>
+      <c r="D82" t="s">
+        <v>257</v>
+      </c>
+      <c r="E82">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>85</v>
+      </c>
+      <c r="C83" t="s">
+        <v>168</v>
+      </c>
+      <c r="E83">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>86</v>
+      </c>
+      <c r="C84" t="s">
+        <v>169</v>
+      </c>
+      <c r="D84" t="s">
+        <v>258</v>
+      </c>
+      <c r="E84">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>87</v>
+      </c>
+      <c r="C85" t="s">
+        <v>170</v>
+      </c>
+      <c r="D85" t="s">
+        <v>259</v>
+      </c>
+      <c r="E85">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>88</v>
+      </c>
+      <c r="C86" t="s">
+        <v>171</v>
+      </c>
+      <c r="D86" t="s">
+        <v>260</v>
+      </c>
+      <c r="E86">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>89</v>
+      </c>
+      <c r="C87" t="s">
+        <v>172</v>
+      </c>
+      <c r="D87" t="s">
+        <v>261</v>
+      </c>
+      <c r="E87">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>90</v>
+      </c>
+      <c r="C88" t="s">
+        <v>138</v>
+      </c>
+      <c r="D88" t="s">
+        <v>262</v>
+      </c>
+      <c r="E88">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>91</v>
+      </c>
+      <c r="C89" t="s">
+        <v>173</v>
+      </c>
+      <c r="D89" t="s">
+        <v>263</v>
+      </c>
+      <c r="E89">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>92</v>
+      </c>
+      <c r="C90" t="s">
+        <v>174</v>
+      </c>
+      <c r="D90" t="s">
+        <v>264</v>
+      </c>
+      <c r="E90">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>93</v>
+      </c>
+      <c r="C91" t="s">
+        <v>175</v>
+      </c>
+      <c r="D91" t="s">
+        <v>265</v>
+      </c>
+      <c r="E91">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>94</v>
+      </c>
+      <c r="C92" t="s">
+        <v>176</v>
+      </c>
+      <c r="D92" t="s">
+        <v>266</v>
+      </c>
+      <c r="E92">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>95</v>
+      </c>
+      <c r="C93" t="s">
         <v>154</v>
       </c>
-      <c r="C56" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" t="s">
-        <v>156</v>
-      </c>
-      <c r="B57" t="s">
-        <v>157</v>
-      </c>
-      <c r="C57" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" t="s">
-        <v>159</v>
-      </c>
-      <c r="B58" t="s">
-        <v>160</v>
-      </c>
-      <c r="C58" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" t="s">
-        <v>162</v>
-      </c>
-      <c r="B59" t="s">
-        <v>71</v>
-      </c>
-      <c r="C59" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" t="s">
-        <v>164</v>
-      </c>
-      <c r="B60" t="s">
-        <v>165</v>
-      </c>
-      <c r="C60" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" t="s">
-        <v>167</v>
-      </c>
-      <c r="B61" t="s">
-        <v>168</v>
-      </c>
-      <c r="C61" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" t="s">
-        <v>170</v>
-      </c>
-      <c r="B62" t="s">
-        <v>171</v>
-      </c>
-      <c r="C62" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" t="s">
-        <v>173</v>
-      </c>
-      <c r="B63" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" t="s">
-        <v>175</v>
-      </c>
-      <c r="B64" t="s">
-        <v>176</v>
-      </c>
-      <c r="C64" t="s">
+      <c r="D93" t="s">
+        <v>267</v>
+      </c>
+      <c r="E93">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>96</v>
+      </c>
+      <c r="C94" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" t="s">
+      <c r="D94" t="s">
+        <v>268</v>
+      </c>
+      <c r="E94">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>97</v>
+      </c>
+      <c r="C95" t="s">
         <v>178</v>
       </c>
-      <c r="B65" t="s">
+      <c r="D95" t="s">
+        <v>269</v>
+      </c>
+      <c r="E95">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>98</v>
+      </c>
+      <c r="C96" t="s">
         <v>179</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D96" t="s">
+        <v>270</v>
+      </c>
+      <c r="E96">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>99</v>
+      </c>
+      <c r="C97" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" t="s">
+      <c r="D97" t="s">
+        <v>271</v>
+      </c>
+      <c r="E97">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>100</v>
+      </c>
+      <c r="C98" t="s">
         <v>181</v>
       </c>
-      <c r="B66" t="s">
+      <c r="D98" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E98">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>101</v>
+      </c>
+      <c r="C99" t="s">
         <v>182</v>
       </c>
-      <c r="C66" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" t="s">
-        <v>184</v>
-      </c>
-      <c r="B67" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" t="s">
-        <v>186</v>
-      </c>
-      <c r="B68" t="s">
-        <v>187</v>
-      </c>
-      <c r="C68" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" t="s">
-        <v>189</v>
-      </c>
-      <c r="B69" t="s">
-        <v>190</v>
-      </c>
-      <c r="C69" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" t="s">
-        <v>192</v>
-      </c>
-      <c r="B70" t="s">
-        <v>46</v>
-      </c>
-      <c r="C70" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" t="s">
-        <v>194</v>
-      </c>
-      <c r="B71" t="s">
-        <v>195</v>
-      </c>
-      <c r="C71" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" t="s">
-        <v>197</v>
-      </c>
-      <c r="B72" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" t="s">
-        <v>199</v>
-      </c>
-      <c r="B73" t="s">
-        <v>200</v>
-      </c>
-      <c r="C73" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" t="s">
-        <v>202</v>
-      </c>
-      <c r="B74" t="s">
-        <v>7</v>
-      </c>
-      <c r="C74" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" t="s">
-        <v>204</v>
-      </c>
-      <c r="B75" t="s">
-        <v>205</v>
-      </c>
-      <c r="C75" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" t="s">
-        <v>207</v>
-      </c>
-      <c r="B76" t="s">
-        <v>30</v>
-      </c>
-      <c r="C76" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" t="s">
-        <v>209</v>
-      </c>
-      <c r="B77" t="s">
-        <v>210</v>
-      </c>
-      <c r="C77" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" t="s">
-        <v>212</v>
-      </c>
-      <c r="B78" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" t="s">
-        <v>214</v>
-      </c>
-      <c r="B79" t="s">
-        <v>215</v>
-      </c>
-      <c r="C79" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" t="s">
-        <v>217</v>
-      </c>
-      <c r="B80" t="s">
-        <v>218</v>
-      </c>
-      <c r="C80" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" t="s">
-        <v>220</v>
-      </c>
-      <c r="B81" t="s">
-        <v>221</v>
-      </c>
-      <c r="C81" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" t="s">
-        <v>223</v>
-      </c>
-      <c r="B82" t="s">
-        <v>224</v>
-      </c>
-      <c r="C82" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" t="s">
-        <v>226</v>
-      </c>
-      <c r="B83" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" t="s">
-        <v>228</v>
-      </c>
-      <c r="B84" t="s">
-        <v>229</v>
-      </c>
-      <c r="C84" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" t="s">
-        <v>231</v>
-      </c>
-      <c r="B85" t="s">
-        <v>232</v>
-      </c>
-      <c r="C85" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" t="s">
-        <v>234</v>
-      </c>
-      <c r="B86" t="s">
-        <v>235</v>
-      </c>
-      <c r="C86" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" t="s">
-        <v>237</v>
-      </c>
-      <c r="B87" t="s">
-        <v>238</v>
-      </c>
-      <c r="C87" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" t="s">
-        <v>240</v>
-      </c>
-      <c r="B88" t="s">
-        <v>131</v>
-      </c>
-      <c r="C88" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" t="s">
-        <v>242</v>
-      </c>
-      <c r="B89" t="s">
-        <v>243</v>
-      </c>
-      <c r="C89" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" t="s">
-        <v>245</v>
-      </c>
-      <c r="B90" t="s">
-        <v>246</v>
-      </c>
-      <c r="C90" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" t="s">
-        <v>248</v>
-      </c>
-      <c r="B91" t="s">
-        <v>249</v>
-      </c>
-      <c r="C91" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" t="s">
-        <v>251</v>
-      </c>
-      <c r="B92" t="s">
-        <v>252</v>
-      </c>
-      <c r="C92" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" t="s">
-        <v>254</v>
-      </c>
-      <c r="B93" t="s">
-        <v>182</v>
-      </c>
-      <c r="C93" t="s">
+      <c r="D99" t="s">
+        <v>272</v>
+      </c>
+      <c r="E99">
         <v>255</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
-      <c r="A94" t="s">
-        <v>256</v>
-      </c>
-      <c r="B94" t="s">
-        <v>257</v>
-      </c>
-      <c r="C94" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" t="s">
-        <v>259</v>
-      </c>
-      <c r="B95" t="s">
-        <v>260</v>
-      </c>
-      <c r="C95" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" t="s">
-        <v>262</v>
-      </c>
-      <c r="B96" t="s">
-        <v>263</v>
-      </c>
-      <c r="C96" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" t="s">
-        <v>265</v>
-      </c>
-      <c r="B97" t="s">
-        <v>266</v>
-      </c>
-      <c r="C97" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" t="s">
-        <v>268</v>
-      </c>
-      <c r="B98" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" t="s">
-        <v>270</v>
-      </c>
-      <c r="B99" t="s">
-        <v>271</v>
-      </c>
-      <c r="C99" t="s">
-        <v>272</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>